--- a/Turma Intensivo - Manhã Julho 2017/Aula 5/Procv 3 com validação e nome de tabela.xlsx
+++ b/Turma Intensivo - Manhã Julho 2017/Aula 5/Procv 3 com validação e nome de tabela.xlsx
@@ -9,11 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="3" r:id="rId1"/>
+    <sheet name="Planilha1 (2)" sheetId="4" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="Busca_Nome">'Planilha1 (2)'!$H$2</definedName>
+    <definedName name="Nome_Pessoas">'Planilha1 (2)'!$A$2:$A$16</definedName>
+    <definedName name="Tabe_Nomes">'Planilha1 (2)'!$A$2:$E$16</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="71">
   <si>
     <t>Nome</t>
   </si>
@@ -613,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -939,4 +945,367 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
+    <col min="2" max="2" width="26.125" customWidth="1"/>
+    <col min="3" max="3" width="16.875" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="5.875" customWidth="1"/>
+    <col min="7" max="7" width="7.5" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
+    <col min="9" max="9" width="18.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="str">
+        <f>VLOOKUP(Busca_Nome,Tabe_Nomes,F3,FALSE)</f>
+        <v>Rodovia Anhanguera, km 180</v>
+      </c>
+      <c r="I3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f>VLOOKUP(Busca_Nome,Tabe_Nomes,F4,FALSE)</f>
+        <v>Centro</v>
+      </c>
+      <c r="I4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f>VLOOKUP(Busca_Nome,Tabe_Nomes,F5,FALSE)</f>
+        <v>Leme</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f>VLOOKUP(Busca_Nome,Tabe_Nomes,F6,FALSE)</f>
+        <v>SP</v>
+      </c>
+      <c r="I6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
+      <formula1>Nome_Pessoas</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>